--- a/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -436,13 +436,13 @@
         <v>1</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -486,13 +486,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -636,13 +636,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -686,63 +686,63 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -786,13 +786,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
@@ -812,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -836,163 +836,163 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -647,43 +647,43 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -697,43 +697,43 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>

--- a/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -397,7 +397,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -409,13 +409,13 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
         <v>1</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -459,13 +459,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>5</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -647,43 +647,43 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -697,10 +697,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -712,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -774,16 +774,16 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>

--- a/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K018A1442\Documents\LoopGame\LoopGame\LoopGame\Content\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Sourcetree\Loop\LoopGame\LoopGame\Content\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FED0CE-24C5-45E6-A784-FCD849017DBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="8064"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestStage02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,7 +73,322 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -383,21 +699,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16" width="3.09765625" customWidth="1"/>
+    <col min="1" max="16" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -430,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1">
         <v>1</v>
@@ -445,18 +761,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -477,13 +793,13 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -495,18 +811,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -530,277 +846,277 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -830,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -842,176 +1158,94 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:P12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="A10:P10">
+    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:P9">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M9">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:P19">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:M19">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Sourcetree\Loop\LoopGame\LoopGame\Content\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FED0CE-24C5-45E6-A784-FCD849017DBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3D12FD3F-7552-4C02-8647-710227142D95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -84,6 +112,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -176,181 +211,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -703,7 +563,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -740,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -763,16 +623,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -790,16 +650,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -819,31 +679,31 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -869,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -878,19 +738,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -913,43 +773,43 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -966,37 +826,37 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1028,19 +888,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1087,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1140,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1164,87 +1024,104 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A10:P10">
-    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:P9">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M9">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+  <conditionalFormatting sqref="A1:M1 A8:M9 A2:C7 I2:M7">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:P19">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:M19">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:H7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
